--- a/testData/Hana_T759.xlsx
+++ b/testData/Hana_T759.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956CA932-62FC-407B-A036-0749FF8FF0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA48931-4BE7-4359-8A85-F514B10759AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>Etc</t>
   </si>
   <si>
-    <t>1101 East Karsch Blvd, Farmington, MO 63640</t>
-  </si>
-  <si>
     <t>1101 E Karsch Blvd</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>School Spirit</t>
+  </si>
+  <si>
+    <t>1101 E Karsch Blvd, Farmington, MO 63640</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,10 +574,10 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>20</v>
@@ -595,13 +595,13 @@
         <v>13</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>0</v>
